--- a/sample/samplemachinebreak.xlsx
+++ b/sample/samplemachinebreak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\cnc\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F29EBEA3-740F-4AE9-A35B-0D85D4CB921C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BE2ABD-1C1A-4638-9F34-D1B655333718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15600" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Machine</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Report Name :- Machine Breakdown Report</t>
+  </si>
+  <si>
+    <t>Rework Min</t>
   </si>
 </sst>
 </file>
@@ -250,15 +253,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>3044</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582708</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -274,21 +277,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="504825"/>
-          <a:ext cx="1619250" cy="450719"/>
+          <a:off x="123825" y="201479"/>
+          <a:ext cx="1287558" cy="1081157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -621,11 +623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,24 +639,24 @@
     <col min="5" max="5" width="8.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="1" customWidth="1"/>
-    <col min="11" max="24" width="12.28515625" style="1"/>
-    <col min="25" max="25" width="12.28515625" style="5"/>
-    <col min="26" max="26" width="12.28515625" style="2"/>
-    <col min="27" max="27" width="12.28515625" style="5"/>
-    <col min="28" max="28" width="21" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" style="3" customWidth="1"/>
-    <col min="30" max="38" width="12.28515625" style="2" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="2" customWidth="1"/>
-    <col min="40" max="46" width="12.28515625" style="2" customWidth="1"/>
-    <col min="47" max="49" width="12.28515625" style="2"/>
-    <col min="50" max="50" width="12.28515625" style="4"/>
-    <col min="51" max="16384" width="12.28515625" style="1"/>
+    <col min="8" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="25" width="12.28515625" style="1"/>
+    <col min="26" max="26" width="12.28515625" style="5"/>
+    <col min="27" max="27" width="12.28515625" style="2"/>
+    <col min="28" max="28" width="12.28515625" style="5"/>
+    <col min="29" max="29" width="21" style="2" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" style="3" customWidth="1"/>
+    <col min="31" max="39" width="12.28515625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="2" customWidth="1"/>
+    <col min="41" max="47" width="12.28515625" style="2" customWidth="1"/>
+    <col min="48" max="50" width="12.28515625" style="2"/>
+    <col min="51" max="51" width="12.28515625" style="4"/>
+    <col min="52" max="16384" width="12.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="11"/>
       <c r="C1" s="7"/>
@@ -665,8 +667,9 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="8"/>
@@ -677,8 +680,9 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="8"/>
@@ -689,8 +693,9 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="8"/>
@@ -703,8 +708,9 @@
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="15"/>
@@ -715,8 +721,9 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="15"/>
@@ -727,8 +734,9 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="8"/>
@@ -739,8 +747,9 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -766,18 +775,21 @@
         <v>7</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B7"/>
-    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G6:K6"/>
     <mergeCell ref="C5:E6"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
